--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/LTIMindtree Ltd/Pruned_Excel/Semi_Final/LTIMindtree Ltd_Semi_Final.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/LTIMindtree Ltd/Pruned_Excel/Semi_Final/LTIMindtree Ltd_Semi_Final.xlsx
@@ -18,11 +18,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="101">
   <si>
     <t>Balance Sheet of LTIMindtree(in Rs. Cr.)</t>
   </si>
   <si>
+    <t>Month</t>
+  </si>
+  <si>
     <t>Total share capital</t>
   </si>
   <si>
@@ -59,34 +62,37 @@
     <t>Total assets</t>
   </si>
   <si>
-    <t>Mar 15</t>
-  </si>
-  <si>
-    <t>Mar 16</t>
-  </si>
-  <si>
-    <t>Mar 17</t>
-  </si>
-  <si>
-    <t>Mar 18</t>
-  </si>
-  <si>
-    <t>Mar 19</t>
-  </si>
-  <si>
-    <t>Mar 20</t>
-  </si>
-  <si>
-    <t>Mar 21</t>
-  </si>
-  <si>
-    <t>Mar 22</t>
-  </si>
-  <si>
-    <t>Mar 23</t>
-  </si>
-  <si>
-    <t>Mar 24</t>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>03</t>
   </si>
   <si>
     <t>Cash Flow of LTIMindtree(in Rs. Cr.)</t>
@@ -185,9 +191,6 @@
     <t>Quarterly Results of LTIMindtree(in Rs. Cr.)</t>
   </si>
   <si>
-    <t>Month</t>
-  </si>
-  <si>
     <t>Quarter</t>
   </si>
   <si>
@@ -245,36 +248,6 @@
     <t>Diluted eps.</t>
   </si>
   <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>2023</t>
-  </si>
-  <si>
-    <t>2024</t>
-  </si>
-  <si>
     <t>06</t>
   </si>
   <si>
@@ -282,9 +255,6 @@
   </si>
   <si>
     <t>12</t>
-  </si>
-  <si>
-    <t>03</t>
   </si>
   <si>
     <t>Q1</t>
@@ -708,13 +678,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -754,414 +724,447 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2">
         <v>16.13</v>
-      </c>
-      <c r="C2">
-        <v>1909.33</v>
       </c>
       <c r="D2">
         <v>1909.33</v>
       </c>
       <c r="E2">
+        <v>1909.33</v>
+      </c>
+      <c r="F2">
         <v>1925.45</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>159.95</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>895.64</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>2906.87</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>261.7</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>361.55</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>995.59</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>1911.29</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>2906.87</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3">
         <v>16.98</v>
-      </c>
-      <c r="C3">
-        <v>1846.29</v>
       </c>
       <c r="D3">
         <v>1846.29</v>
       </c>
       <c r="E3">
+        <v>1846.29</v>
+      </c>
+      <c r="F3">
         <v>1863.27</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>267.84</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1141.43</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>3238.03</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>264.99</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>339.2</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>1079.73</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>2158.3</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>3238.03</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4">
         <v>17.1</v>
-      </c>
-      <c r="C4">
-        <v>2959.8</v>
       </c>
       <c r="D4">
         <v>2959.8</v>
       </c>
       <c r="E4">
+        <v>2959.8</v>
+      </c>
+      <c r="F4">
         <v>2976.9</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>714.5</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1207.5</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>4212.9</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>247.7</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>287.1</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>1138.2</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>3074.7</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>4212.9</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5">
         <v>17.2</v>
-      </c>
-      <c r="C5">
-        <v>3701.4</v>
       </c>
       <c r="D5">
         <v>3701.4</v>
       </c>
       <c r="E5">
+        <v>3701.4</v>
+      </c>
+      <c r="F5">
         <v>3718.6</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>737.7</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>1284.6</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>5051.6</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>241.2</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>279.5</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>1067.8</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>3983.8</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>5051.6</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6">
         <v>17.4</v>
-      </c>
-      <c r="C6">
-        <v>4696.1</v>
       </c>
       <c r="D6">
         <v>4696.1</v>
       </c>
       <c r="E6">
+        <v>4696.1</v>
+      </c>
+      <c r="F6">
         <v>4713.5</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>832.8</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>1480.8</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>6226.6</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>281.6</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>322.9</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>1386.1</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>4840.5</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>6226.6</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7">
         <v>17.4</v>
-      </c>
-      <c r="C7">
-        <v>5105.1</v>
       </c>
       <c r="D7">
         <v>5105.1</v>
       </c>
       <c r="E7">
+        <v>5105.1</v>
+      </c>
+      <c r="F7">
         <v>5228.8</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>1152.3</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>2084.6</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>8316.700000000001</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>1116.1</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>1191.5</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>2330.2</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>5986.5</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>8316.700000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8">
         <v>17.5</v>
-      </c>
-      <c r="C8">
-        <v>6844.8</v>
       </c>
       <c r="D8">
         <v>6844.8</v>
       </c>
       <c r="E8">
+        <v>6844.8</v>
+      </c>
+      <c r="F8">
         <v>6941.8</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>1183.2</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>2320.5</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>9988.5</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>961.1</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>1076.1</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>2408.4</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>7580.1</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>9988.5</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9">
         <v>17.5</v>
-      </c>
-      <c r="C9">
-        <v>8327.1</v>
       </c>
       <c r="D9">
         <v>8327.1</v>
       </c>
       <c r="E9">
+        <v>8327.1</v>
+      </c>
+      <c r="F9">
         <v>8402.9</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>1466.7</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>2617.7</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>11703.3</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>1067.3</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>1625.5</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>3364.2</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>8339.1</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>11703.3</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10">
         <v>29.6</v>
-      </c>
-      <c r="C10">
-        <v>15485.5</v>
       </c>
       <c r="D10">
         <v>15485.5</v>
       </c>
       <c r="E10">
+        <v>15485.5</v>
+      </c>
+      <c r="F10">
         <v>15999.1</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>3053</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>5104.2</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>22455.8</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>2148.3</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>3623.2</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>5946.1</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>16509.7</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>22455.8</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11">
         <v>29.6</v>
-      </c>
-      <c r="C11">
-        <v>18925.5</v>
       </c>
       <c r="D11">
         <v>18925.5</v>
       </c>
       <c r="E11">
+        <v>18925.5</v>
+      </c>
+      <c r="F11">
         <v>19298.4</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>3169.3</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>5469.2</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>26457.7</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>3444.7</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>4696.5</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>8276.1</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>18181.6</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>26457.7</v>
       </c>
     </row>
@@ -1172,328 +1175,361 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>943.17</v>
+      </c>
+      <c r="D2">
+        <v>580.47</v>
+      </c>
+      <c r="E2">
+        <v>-97.88</v>
+      </c>
+      <c r="F2">
+        <v>-494.69</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>-12.11</v>
+      </c>
+      <c r="I2">
+        <v>145.54</v>
+      </c>
+      <c r="J2">
+        <v>133.43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <v>1153.17</v>
+      </c>
+      <c r="D3">
+        <v>769.38</v>
+      </c>
+      <c r="E3">
+        <v>34.24</v>
+      </c>
+      <c r="F3">
+        <v>-816.72</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>-11.26</v>
+      </c>
+      <c r="I3">
+        <v>133.43</v>
+      </c>
+      <c r="J3">
+        <v>122.18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <v>937.6</v>
+      </c>
+      <c r="D4">
+        <v>1047.2</v>
+      </c>
+      <c r="E4">
+        <v>-927.6</v>
+      </c>
+      <c r="F4">
+        <v>-43.7</v>
+      </c>
+      <c r="G4">
+        <v>-7.5</v>
+      </c>
+      <c r="H4">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="I4">
+        <v>122.2</v>
+      </c>
+      <c r="J4">
+        <v>190.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>1160.1</v>
+      </c>
+      <c r="D5">
+        <v>710.9</v>
+      </c>
+      <c r="E5">
+        <v>-249.8</v>
+      </c>
+      <c r="F5">
+        <v>-407.6</v>
+      </c>
+      <c r="G5">
+        <v>3.5</v>
+      </c>
+      <c r="H5">
+        <v>59.2</v>
+      </c>
+      <c r="I5">
+        <v>190.6</v>
+      </c>
+      <c r="J5">
+        <v>249.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>1475.1</v>
+      </c>
+      <c r="D6">
+        <v>1247.5</v>
+      </c>
+      <c r="E6">
+        <v>-682.7</v>
+      </c>
+      <c r="F6">
+        <v>-595.2</v>
+      </c>
+      <c r="G6">
+        <v>-4.1</v>
+      </c>
+      <c r="H6">
+        <v>-34.5</v>
+      </c>
+      <c r="I6">
+        <v>249.9</v>
+      </c>
+      <c r="J6">
+        <v>215.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <v>1552.4</v>
+      </c>
+      <c r="D7">
+        <v>1644.1</v>
+      </c>
+      <c r="E7">
+        <v>-578.2</v>
+      </c>
+      <c r="F7">
+        <v>-918.5</v>
+      </c>
+      <c r="G7">
+        <v>8.6</v>
+      </c>
+      <c r="H7">
+        <v>156</v>
+      </c>
+      <c r="I7">
+        <v>215.4</v>
+      </c>
+      <c r="J7">
+        <v>371.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8">
+        <v>1788.4</v>
+      </c>
+      <c r="D8">
+        <v>2179.3</v>
+      </c>
+      <c r="E8">
+        <v>-1637</v>
+      </c>
+      <c r="F8">
+        <v>-513.3</v>
+      </c>
+      <c r="G8">
+        <v>1.2</v>
+      </c>
+      <c r="H8">
+        <v>30.2</v>
+      </c>
+      <c r="I8">
+        <v>372.3</v>
+      </c>
+      <c r="J8">
+        <v>402.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <v>2260.9</v>
+      </c>
+      <c r="D9">
+        <v>1607</v>
+      </c>
+      <c r="E9">
+        <v>-668.7</v>
+      </c>
+      <c r="F9">
+        <v>-1047</v>
+      </c>
+      <c r="G9">
+        <v>-10.2</v>
+      </c>
+      <c r="H9">
+        <v>-118.9</v>
+      </c>
+      <c r="I9">
+        <v>402.5</v>
+      </c>
+      <c r="J9">
+        <v>283.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10">
+        <v>4256.3</v>
+      </c>
+      <c r="D10">
+        <v>2883.1</v>
+      </c>
+      <c r="E10">
+        <v>-238.9</v>
+      </c>
+      <c r="F10">
+        <v>-1979.9</v>
+      </c>
+      <c r="G10">
+        <v>62.3</v>
+      </c>
+      <c r="H10">
+        <v>726.6</v>
+      </c>
+      <c r="I10">
+        <v>1333</v>
+      </c>
+      <c r="J10">
+        <v>2059.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>943.17</v>
-      </c>
-      <c r="C2">
-        <v>580.47</v>
-      </c>
-      <c r="D2">
-        <v>-97.88</v>
-      </c>
-      <c r="E2">
-        <v>-494.69</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>-12.11</v>
-      </c>
-      <c r="H2">
-        <v>145.54</v>
-      </c>
-      <c r="I2">
-        <v>133.43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>1153.17</v>
-      </c>
-      <c r="C3">
-        <v>769.38</v>
-      </c>
-      <c r="D3">
-        <v>34.24</v>
-      </c>
-      <c r="E3">
-        <v>-816.72</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>-11.26</v>
-      </c>
-      <c r="H3">
-        <v>133.43</v>
-      </c>
-      <c r="I3">
-        <v>122.18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>937.6</v>
-      </c>
-      <c r="C4">
-        <v>1047.2</v>
-      </c>
-      <c r="D4">
-        <v>-927.6</v>
-      </c>
-      <c r="E4">
-        <v>-43.7</v>
-      </c>
-      <c r="F4">
-        <v>-7.5</v>
-      </c>
-      <c r="G4">
-        <v>68.40000000000001</v>
-      </c>
-      <c r="H4">
-        <v>122.2</v>
-      </c>
-      <c r="I4">
-        <v>190.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>1160.1</v>
-      </c>
-      <c r="C5">
-        <v>710.9</v>
-      </c>
-      <c r="D5">
-        <v>-249.8</v>
-      </c>
-      <c r="E5">
-        <v>-407.6</v>
-      </c>
-      <c r="F5">
-        <v>3.5</v>
-      </c>
-      <c r="G5">
-        <v>59.2</v>
-      </c>
-      <c r="H5">
-        <v>190.6</v>
-      </c>
-      <c r="I5">
-        <v>249.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>1475.1</v>
-      </c>
-      <c r="C6">
-        <v>1247.5</v>
-      </c>
-      <c r="D6">
-        <v>-682.7</v>
-      </c>
-      <c r="E6">
-        <v>-595.2</v>
-      </c>
-      <c r="F6">
-        <v>-4.1</v>
-      </c>
-      <c r="G6">
-        <v>-34.5</v>
-      </c>
-      <c r="H6">
-        <v>249.9</v>
-      </c>
-      <c r="I6">
-        <v>215.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>1552.4</v>
-      </c>
-      <c r="C7">
-        <v>1644.1</v>
-      </c>
-      <c r="D7">
-        <v>-578.2</v>
-      </c>
-      <c r="E7">
-        <v>-918.5</v>
-      </c>
-      <c r="F7">
-        <v>8.6</v>
-      </c>
-      <c r="G7">
-        <v>156</v>
-      </c>
-      <c r="H7">
-        <v>215.4</v>
-      </c>
-      <c r="I7">
-        <v>371.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <v>1788.4</v>
-      </c>
-      <c r="C8">
-        <v>2179.3</v>
-      </c>
-      <c r="D8">
-        <v>-1637</v>
-      </c>
-      <c r="E8">
-        <v>-513.3</v>
-      </c>
-      <c r="F8">
-        <v>1.2</v>
-      </c>
-      <c r="G8">
-        <v>30.2</v>
-      </c>
-      <c r="H8">
-        <v>372.3</v>
-      </c>
-      <c r="I8">
-        <v>402.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>2260.9</v>
-      </c>
-      <c r="C9">
-        <v>1607</v>
-      </c>
-      <c r="D9">
-        <v>-668.7</v>
-      </c>
-      <c r="E9">
-        <v>-1047</v>
-      </c>
-      <c r="F9">
-        <v>-10.2</v>
-      </c>
-      <c r="G9">
-        <v>-118.9</v>
-      </c>
-      <c r="H9">
-        <v>402.5</v>
-      </c>
-      <c r="I9">
-        <v>283.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
-        <v>4256.3</v>
-      </c>
-      <c r="C10">
-        <v>2883.1</v>
-      </c>
-      <c r="D10">
-        <v>-238.9</v>
-      </c>
-      <c r="E10">
-        <v>-1979.9</v>
-      </c>
-      <c r="F10">
-        <v>62.3</v>
-      </c>
-      <c r="G10">
-        <v>726.6</v>
-      </c>
-      <c r="H10">
-        <v>1333</v>
-      </c>
-      <c r="I10">
-        <v>2059.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
+      <c r="C11">
         <v>4485.9</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>5529.6</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>-3832.5</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>-2162.6</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>-1.6</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>-467.1</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>2061.8</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>1594.7</v>
       </c>
     </row>
@@ -1504,86 +1540,89 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V11"/>
+  <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
+        <v>54</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>4744.4</v>
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
       </c>
       <c r="C2">
         <v>4744.4</v>
@@ -1592,66 +1631,69 @@
         <v>4744.4</v>
       </c>
       <c r="E2">
+        <v>4744.4</v>
+      </c>
+      <c r="F2">
         <v>88.78</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>4833.18</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>460.54</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>2806.47</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>10.42</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>90.73</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>522.5</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>3890.65</v>
-      </c>
-      <c r="M2">
-        <v>942.53</v>
       </c>
       <c r="N2">
         <v>942.53</v>
       </c>
       <c r="O2">
+        <v>942.53</v>
+      </c>
+      <c r="P2">
         <v>160.28</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>9.289999999999999</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>169.57</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>772.96</v>
-      </c>
-      <c r="S2">
-        <v>773.6</v>
       </c>
       <c r="T2">
         <v>773.6</v>
       </c>
       <c r="U2">
+        <v>773.6</v>
+      </c>
+      <c r="V2">
         <v>239.68</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>229.53</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>5569.52</v>
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
       </c>
       <c r="C3">
         <v>5569.52</v>
@@ -1660,46 +1702,46 @@
         <v>5569.52</v>
       </c>
       <c r="E3">
+        <v>5569.52</v>
+      </c>
+      <c r="F3">
         <v>338.61</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>5908.13</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>667.0599999999999</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>3383.84</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>10.36</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>103.45</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>590.25</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>4754.95</v>
-      </c>
-      <c r="M3">
-        <v>1153.17</v>
       </c>
       <c r="N3">
         <v>1153.17</v>
       </c>
       <c r="O3">
+        <v>1153.17</v>
+      </c>
+      <c r="P3">
         <v>162.71</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>52.33</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>215.04</v>
-      </c>
-      <c r="R3">
-        <v>938.13</v>
       </c>
       <c r="S3">
         <v>938.13</v>
@@ -1708,18 +1750,21 @@
         <v>938.13</v>
       </c>
       <c r="U3">
+        <v>938.13</v>
+      </c>
+      <c r="V3">
         <v>57.23</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>57.1</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>6182.9</v>
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
       </c>
       <c r="C4">
         <v>6182.9</v>
@@ -1728,46 +1773,46 @@
         <v>6182.9</v>
       </c>
       <c r="E4">
+        <v>6182.9</v>
+      </c>
+      <c r="F4">
         <v>198.3</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>6381.2</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1414.1</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>3597.5</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>3.2</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>108.9</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>73.3</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>5197</v>
-      </c>
-      <c r="M4">
-        <v>1184.2</v>
       </c>
       <c r="N4">
         <v>1184.2</v>
       </c>
       <c r="O4">
+        <v>1184.2</v>
+      </c>
+      <c r="P4">
         <v>293.4</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>-46.8</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>246.6</v>
-      </c>
-      <c r="R4">
-        <v>937.6</v>
       </c>
       <c r="S4">
         <v>937.6</v>
@@ -1776,18 +1821,21 @@
         <v>937.6</v>
       </c>
       <c r="U4">
+        <v>937.6</v>
+      </c>
+      <c r="V4">
         <v>55.11</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>53.89</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>6906.4</v>
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
       </c>
       <c r="C5">
         <v>6906.4</v>
@@ -1796,46 +1844,46 @@
         <v>6906.4</v>
       </c>
       <c r="E5">
+        <v>6906.4</v>
+      </c>
+      <c r="F5">
         <v>525.4</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>7431.8</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>1628.6</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>4134.8</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>13.8</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>91.3</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>94.90000000000001</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>5963.4</v>
-      </c>
-      <c r="M5">
-        <v>1468.4</v>
       </c>
       <c r="N5">
         <v>1468.4</v>
       </c>
       <c r="O5">
+        <v>1468.4</v>
+      </c>
+      <c r="P5">
         <v>333</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>-24.7</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>308.3</v>
-      </c>
-      <c r="R5">
-        <v>1160.1</v>
       </c>
       <c r="S5">
         <v>1160.1</v>
@@ -1844,18 +1892,21 @@
         <v>1160.1</v>
       </c>
       <c r="U5">
+        <v>1160.1</v>
+      </c>
+      <c r="V5">
         <v>67.73999999999999</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>66.23</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>8907.200000000001</v>
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
       </c>
       <c r="C6">
         <v>8907.200000000001</v>
@@ -1864,46 +1915,46 @@
         <v>8907.200000000001</v>
       </c>
       <c r="E6">
+        <v>8907.200000000001</v>
+      </c>
+      <c r="F6">
         <v>329</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>9236.200000000001</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>1931.6</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>5128.7</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>4.3</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>88.09999999999999</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>123.8</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>7276.5</v>
-      </c>
-      <c r="M6">
-        <v>1959.7</v>
       </c>
       <c r="N6">
         <v>1959.7</v>
       </c>
       <c r="O6">
+        <v>1959.7</v>
+      </c>
+      <c r="P6">
         <v>447.6</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>37</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>484.6</v>
-      </c>
-      <c r="R6">
-        <v>1475.1</v>
       </c>
       <c r="S6">
         <v>1475.1</v>
@@ -1912,18 +1963,21 @@
         <v>1475.1</v>
       </c>
       <c r="U6">
+        <v>1475.1</v>
+      </c>
+      <c r="V6">
         <v>85.31</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>84.11</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>10184.2</v>
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
       </c>
       <c r="C7">
         <v>10184.2</v>
@@ -1932,46 +1986,46 @@
         <v>10184.2</v>
       </c>
       <c r="E7">
+        <v>10184.2</v>
+      </c>
+      <c r="F7">
         <v>421.7</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>10605.9</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>2173.6</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>5982.8</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>72</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>208.4</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>162.1</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>8598.9</v>
-      </c>
-      <c r="M7">
-        <v>2007</v>
       </c>
       <c r="N7">
         <v>2007</v>
       </c>
       <c r="O7">
+        <v>2007</v>
+      </c>
+      <c r="P7">
         <v>353</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>101.6</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>454.6</v>
-      </c>
-      <c r="R7">
-        <v>1552.4</v>
       </c>
       <c r="S7">
         <v>1552.4</v>
@@ -1980,18 +2034,21 @@
         <v>1552.4</v>
       </c>
       <c r="U7">
+        <v>1552.4</v>
+      </c>
+      <c r="V7">
         <v>89.31</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>88.45</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <v>11566.1</v>
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
       </c>
       <c r="C8">
         <v>11566.1</v>
@@ -2000,46 +2057,46 @@
         <v>11566.1</v>
       </c>
       <c r="E8">
+        <v>11566.1</v>
+      </c>
+      <c r="F8">
         <v>225.4</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>11791.5</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>2076.3</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>6809.8</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>71.90000000000001</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>267.6</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>173.5</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>9399.1</v>
-      </c>
-      <c r="M8">
-        <v>2392.4</v>
       </c>
       <c r="N8">
         <v>2392.4</v>
       </c>
       <c r="O8">
+        <v>2392.4</v>
+      </c>
+      <c r="P8">
         <v>584.3</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>19.7</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>604</v>
-      </c>
-      <c r="R8">
-        <v>1788.4</v>
       </c>
       <c r="S8">
         <v>1788.4</v>
@@ -2048,18 +2105,21 @@
         <v>1788.4</v>
       </c>
       <c r="U8">
+        <v>1788.4</v>
+      </c>
+      <c r="V8">
         <v>102.51</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>101.85</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>14406.4</v>
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
       </c>
       <c r="C9">
         <v>14406.4</v>
@@ -2068,46 +2128,46 @@
         <v>14406.4</v>
       </c>
       <c r="E9">
+        <v>14406.4</v>
+      </c>
+      <c r="F9">
         <v>589.1</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>14995.5</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>2814</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>8590</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>68.09999999999999</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>288.1</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>224.9</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>11985.1</v>
-      </c>
-      <c r="M9">
-        <v>3010.4</v>
       </c>
       <c r="N9">
         <v>3010.4</v>
       </c>
       <c r="O9">
+        <v>3010.4</v>
+      </c>
+      <c r="P9">
         <v>769.6</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>-20.1</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>749.5</v>
-      </c>
-      <c r="R9">
-        <v>2260.9</v>
       </c>
       <c r="S9">
         <v>2260.9</v>
@@ -2116,18 +2176,21 @@
         <v>2260.9</v>
       </c>
       <c r="U9">
+        <v>2260.9</v>
+      </c>
+      <c r="V9">
         <v>129.14</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>128.77</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
-        <v>31975.4</v>
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
       </c>
       <c r="C10">
         <v>31975.4</v>
@@ -2136,46 +2199,46 @@
         <v>31975.4</v>
       </c>
       <c r="E10">
+        <v>31975.4</v>
+      </c>
+      <c r="F10">
         <v>500.8</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>32476.2</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>4445.8</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>19427.4</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>144</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>639.2</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>2231.8</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>26888.2</v>
-      </c>
-      <c r="M10">
-        <v>5588</v>
       </c>
       <c r="N10">
         <v>5588</v>
       </c>
       <c r="O10">
+        <v>5588</v>
+      </c>
+      <c r="P10">
         <v>1383.2</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>-51.5</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>1331.7</v>
-      </c>
-      <c r="R10">
-        <v>4256.3</v>
       </c>
       <c r="S10">
         <v>4256.3</v>
@@ -2184,18 +2247,21 @@
         <v>4256.3</v>
       </c>
       <c r="U10">
+        <v>4256.3</v>
+      </c>
+      <c r="V10">
         <v>143.93</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>143.7</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
-        <v>34253.4</v>
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
       </c>
       <c r="C11">
         <v>34253.4</v>
@@ -2204,46 +2270,46 @@
         <v>34253.4</v>
       </c>
       <c r="E11">
+        <v>34253.4</v>
+      </c>
+      <c r="F11">
         <v>709.9</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>34963.3</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>4813.5</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>21049</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>207.1</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>760.4</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>2253.9</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>29083.9</v>
-      </c>
-      <c r="M11">
-        <v>5879.4</v>
       </c>
       <c r="N11">
         <v>5879.4</v>
       </c>
       <c r="O11">
+        <v>5879.4</v>
+      </c>
+      <c r="P11">
         <v>1391.7</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>1.8</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>1393.5</v>
-      </c>
-      <c r="R11">
-        <v>4485.9</v>
       </c>
       <c r="S11">
         <v>4485.9</v>
@@ -2252,9 +2318,12 @@
         <v>4485.9</v>
       </c>
       <c r="U11">
+        <v>4485.9</v>
+      </c>
+      <c r="V11">
         <v>151.6</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>151.24</v>
       </c>
     </row>
@@ -2273,84 +2342,84 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D2">
         <v>1274.1</v>
@@ -2415,13 +2484,13 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D3">
         <v>1401.9</v>
@@ -2486,13 +2555,13 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D4">
         <v>1416.7</v>
@@ -2557,13 +2626,13 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D5">
         <v>1475.8</v>
@@ -2628,13 +2697,13 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
         <v>76</v>
       </c>
-      <c r="B6" t="s">
-        <v>85</v>
-      </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D6">
         <v>1471.7</v>
@@ -2699,13 +2768,13 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D7">
         <v>1524.6</v>
@@ -2770,13 +2839,13 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D8">
         <v>1593.7</v>
@@ -2841,13 +2910,13 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D9">
         <v>1592.9</v>
@@ -2912,13 +2981,13 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D10">
         <v>1588.9</v>
@@ -2983,13 +3052,13 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
         <v>77</v>
       </c>
-      <c r="B11" t="s">
-        <v>86</v>
-      </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D11">
         <v>1656.2</v>
@@ -3054,13 +3123,13 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C12" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D12">
         <v>1778.2</v>
@@ -3125,13 +3194,13 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D13">
         <v>1883.1</v>
@@ -3196,13 +3265,13 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D14">
         <v>2033.3</v>
@@ -3267,13 +3336,13 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D15">
         <v>2210.1</v>
@@ -3338,13 +3407,13 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
         <v>78</v>
       </c>
-      <c r="B16" t="s">
-        <v>87</v>
-      </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D16">
         <v>2330.5</v>
@@ -3409,13 +3478,13 @@
     </row>
     <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D17">
         <v>2333.3</v>
@@ -3480,13 +3549,13 @@
     </row>
     <row r="18" spans="1:23">
       <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" t="s">
         <v>79</v>
-      </c>
-      <c r="B18" t="s">
-        <v>85</v>
-      </c>
-      <c r="C18" t="s">
-        <v>89</v>
       </c>
       <c r="D18">
         <v>2318.5</v>
@@ -3551,13 +3620,13 @@
     </row>
     <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D19">
         <v>2406.1</v>
@@ -3622,13 +3691,13 @@
     </row>
     <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D20">
         <v>2634.5</v>
@@ -3693,13 +3762,13 @@
     </row>
     <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D21">
         <v>2825.1</v>
@@ -3764,13 +3833,13 @@
     </row>
     <row r="22" spans="1:23">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C22" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D22">
         <v>2764.6</v>
@@ -3835,13 +3904,13 @@
     </row>
     <row r="23" spans="1:23">
       <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" t="s">
         <v>80</v>
-      </c>
-      <c r="B23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" t="s">
-        <v>90</v>
       </c>
       <c r="D23">
         <v>2799.4</v>
@@ -3906,13 +3975,13 @@
     </row>
     <row r="24" spans="1:23">
       <c r="A24" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C24" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D24">
         <v>2965.5</v>
@@ -3977,13 +4046,13 @@
     </row>
     <row r="25" spans="1:23">
       <c r="A25" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D25">
         <v>3033.1</v>
@@ -4048,13 +4117,13 @@
     </row>
     <row r="26" spans="1:23">
       <c r="A26" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D26">
         <v>3173.4</v>
@@ -4119,13 +4188,13 @@
     </row>
     <row r="27" spans="1:23">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C27" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D27">
         <v>3426.7</v>
@@ -4190,13 +4259,13 @@
     </row>
     <row r="28" spans="1:23">
       <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" t="s">
         <v>81</v>
-      </c>
-      <c r="B28" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" t="s">
-        <v>91</v>
       </c>
       <c r="D28">
         <v>6586</v>
@@ -4261,13 +4330,13 @@
     </row>
     <row r="29" spans="1:23">
       <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" t="s">
         <v>82</v>
-      </c>
-      <c r="B29" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" t="s">
-        <v>92</v>
       </c>
       <c r="D29">
         <v>3963.5</v>
@@ -4332,13 +4401,13 @@
     </row>
     <row r="30" spans="1:23">
       <c r="A30" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C30" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D30">
         <v>7337.7</v>
@@ -4403,13 +4472,13 @@
     </row>
     <row r="31" spans="1:23">
       <c r="A31" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C31" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D31">
         <v>7949.4</v>
@@ -4474,13 +4543,13 @@
     </row>
     <row r="32" spans="1:23">
       <c r="A32" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="B32" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C32" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D32">
         <v>8325.9</v>
@@ -4545,13 +4614,13 @@
     </row>
     <row r="33" spans="1:23">
       <c r="A33" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="B33" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="C33" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D33">
         <v>8362.5</v>
@@ -4616,13 +4685,13 @@
     </row>
     <row r="34" spans="1:23">
       <c r="A34" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="B34" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C34" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D34">
         <v>8378.799999999999</v>
@@ -4687,13 +4756,13 @@
     </row>
     <row r="35" spans="1:23">
       <c r="A35" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D35">
         <v>8569.700000000001</v>
@@ -4758,13 +4827,13 @@
     </row>
     <row r="36" spans="1:23">
       <c r="A36" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="B36" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C36" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D36">
         <v>8701</v>
@@ -4829,13 +4898,13 @@
     </row>
     <row r="37" spans="1:23">
       <c r="A37" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="C37" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D37">
         <v>8603.9</v>
@@ -4900,13 +4969,13 @@
     </row>
     <row r="38" spans="1:23">
       <c r="A38" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="B38" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C38" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D38">
         <v>8868.4</v>
@@ -4971,13 +5040,13 @@
     </row>
     <row r="39" spans="1:23">
       <c r="A39" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="B39" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C39" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D39">
         <v>9104.6</v>
@@ -5042,13 +5111,13 @@
     </row>
     <row r="40" spans="1:23">
       <c r="A40" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="B40" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C40" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D40">
         <v>9286.4</v>
@@ -5118,625 +5187,658 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2">
         <v>1471.13</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>323.62</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>295.49</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>292.26</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>239.88</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>21.99</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>20.08</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>19.86</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>16.3</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>40.17</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>26.61</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>0.11</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>62.11</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>55.59</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>37.89</v>
       </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
       <c r="R2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3">
         <v>327.97</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>74.61</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>68.52</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>67.91</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>55.24</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>22.74</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>20.89</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>20.7</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>16.84</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>50.34</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>28.97</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0.03</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>62.98</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>56.72</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>37.02</v>
       </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
       <c r="R3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4">
         <v>361.57</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>75.81</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>69.44</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>69.25</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>54.83</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>20.96</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>19.2</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>19.15</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>15.16</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>31.49</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>22.25</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
       <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
         <v>18.13</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>16.24</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>81.87</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>11970.92</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>9.23</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5">
         <v>401.53</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>91.48</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>86.17</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>85.37</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>67.45</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>22.78</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>21.46</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>21.26</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>16.79</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>31.19</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>22.96</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
       <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
         <v>27.05</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>25.08</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>72.95</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>22817.98</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>14.5</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6">
         <v>511.91</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>117.94</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>112.87</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>112.63</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>84.78</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>23.03</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>22.04</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>22</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>16.56</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>31.29</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>23.69</v>
       </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
       <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
         <v>30.66</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>28.93</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>69.34</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>29089.68</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>14.18</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7">
         <v>585.3</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>131.46</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>119.48</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>115.34</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>89.22</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>22.46</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>20.41</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>19.7</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>15.24</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>29.68</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>18.66</v>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
       <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
         <v>31.4</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>27.68</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>68.59999999999999</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>24521.91</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>10.72</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8">
         <v>660.92</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>156.11</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>140.82</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>136.71</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>102.19</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>23.61</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>21.3</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>20.68</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>15.46</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>25.76</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>17.9</v>
       </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
       <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
         <v>29.76</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>25.89</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>70.23999999999999</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>70437.5</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>25.78</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9">
         <v>823.22</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>192.38</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>175.91</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>172.02</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>129.19</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>23.36</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>21.36</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>20.89</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>15.69</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>26.9</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>19.31</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
       <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
         <v>38.69</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>34.32</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>61.31</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>107087.6</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>31.81</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10">
         <v>1080.25</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>215.24</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>193.65</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>188.78</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>143.79</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>19.92</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>17.92</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>17.47</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>13.31</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>26.6</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>18.95</v>
       </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
       <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
         <v>36.71</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>31.92</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>63.29</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>138199.7</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>21.69</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:19">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11">
         <v>1157.21</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>231.31</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>205.63</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>198.63</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>151.55</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>19.98</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>17.76</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>17.16</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>13.09</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>23.24</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>16.95</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
       <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
         <v>39.57</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>33.83</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>60.43</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>143519.34</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>20.96</v>
       </c>
     </row>
